--- a/pythonscript/canSimulation/sb.xlsx
+++ b/pythonscript/canSimulation/sb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20700" windowHeight="8610"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="5_Matrix" sheetId="1" r:id="rId1"/>
@@ -2119,12 +2119,11 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="30.75" customWidth="1"/>
     <col min="4" max="4" width="29.375" customWidth="1"/>
   </cols>
   <sheetData>
